--- a/FUENTES DE DATOS/DATOS/Tijuana-April-2018.xlsx
+++ b/FUENTES DE DATOS/DATOS/Tijuana-April-2018.xlsx
@@ -1,30 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvelazquez\Google Drive\INFORME TRIMESTRAL\INFORME_TRIMESTRAL\DATOS de DATOZ informe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergiomireles/Dropbox (Datoz)/DATOZ/Reportes de Mercado Mensuales/2018/4.Abril/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91FEC27-9012-4DA8-BB39-3F975FE9D03E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47138F86-52E3-8647-8E20-E9CC67BFB950}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estadísticas Generales" sheetId="1" r:id="rId1"/>
     <sheet name="Absorción Acumulada del Año" sheetId="2" r:id="rId2"/>
     <sheet name="Absorción Trimestral" sheetId="3" r:id="rId3"/>
-    <sheet name="ED por desarrollador" sheetId="10" r:id="rId4"/>
-    <sheet name="Hoja3" sheetId="9" r:id="rId5"/>
-    <sheet name="Disponibilidad" sheetId="4" r:id="rId6"/>
-    <sheet name="Operaciones en Renta" sheetId="5" r:id="rId7"/>
+    <sheet name="Disponibilidad" sheetId="4" r:id="rId4"/>
+    <sheet name="Operaciones en Renta" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179017"/>
-  <pivotCaches>
-    <pivotCache cacheId="20" r:id="rId8"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -37,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="200">
   <si>
     <t>Tijuana, Mercado Total</t>
   </si>
@@ -132,6 +127,9 @@
     <t>Absorción Neta</t>
   </si>
   <si>
+    <t>Disponibilidad Tijuana</t>
+  </si>
+  <si>
     <t>Edificio</t>
   </si>
   <si>
@@ -634,23 +632,13 @@
   </si>
   <si>
     <t xml:space="preserve">Nuevo submercado de Tecate, edificio reportado como disponible </t>
-  </si>
-  <si>
-    <t>Etiquetas de columna</t>
-  </si>
-  <si>
-    <t>Total general</t>
-  </si>
-  <si>
-    <t>Suma de Espacio Disponible ft</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="165" formatCode="mm\-yyyy"/>
   </numFmts>
@@ -712,7 +700,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -750,6 +738,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -766,34 +757,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="135">
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
+  <dxfs count="130">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
@@ -1197,2043 +1165,19 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[Tijuana-April-2018.xlsx]Hoja3!TablaDinámica7</c:name>
-    <c:fmtId val="8"/>
-  </c:pivotSource>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja3!$B$3:$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>En Construcción</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Hoja3!$A$5:$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>Vesta</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Iamsa Development Group</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Atisa Industrial</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>El Florido</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Roca Desarrollos</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Finsa</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Inmobiliaria Diroma</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Thomas Alva Edison</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Fimher</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Prologis</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Frisa</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja3!$B$5:$B$16</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>552454</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>103334</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>221952</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>199974</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D1B2-4F42-A4EA-CA4549FE634D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja3!$C$3:$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Entregado</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Hoja3!$A$5:$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>Vesta</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Iamsa Development Group</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Atisa Industrial</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>El Florido</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Roca Desarrollos</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Finsa</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Inmobiliaria Diroma</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Thomas Alva Edison</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Fimher</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Prologis</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Frisa</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja3!$C$5:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>154310.17600000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>232624</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>175399.37999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>116521</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>107640</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>97422</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>65757</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>26727</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20946</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D1B2-4F42-A4EA-CA4549FE634D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="525610304"/>
-        <c:axId val="522860848"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="525610304"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="522860848"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="522860848"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="525610304"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
-    </a:p>
-  </c:txPr>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{4B9ADDA5-A7BB-45BF-8C42-66F73A40247C}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8666892" cy="6281351"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E34977E-27C5-4BF4-B5D4-721B61919E3A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Pedro Velazquez" refreshedDate="43271.736152314814" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="29" xr:uid="{44C2C18E-44EB-417B-BC62-E00027DB6E58}">
-  <cacheSource type="worksheet">
-    <worksheetSource name="TableAvailability"/>
-  </cacheSource>
-  <cacheFields count="17">
-    <cacheField name="Edificio" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Parque Industrial" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Sub-mercado" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Propietario" numFmtId="0">
-      <sharedItems count="12">
-        <s v="Frisa"/>
-        <s v="Iamsa Development Group"/>
-        <s v="Thomas Alva Edison"/>
-        <s v="Particular"/>
-        <s v="Finsa"/>
-        <s v="Vesta"/>
-        <s v="Fimher"/>
-        <s v="Roca Desarrollos"/>
-        <s v="Prologis"/>
-        <s v="El Florido"/>
-        <s v="Inmobiliaria Diroma"/>
-        <s v="Atisa Industrial"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Desarrollador" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Área Neta Rentable" numFmtId="3">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="23000" maxValue="288252"/>
-    </cacheField>
-    <cacheField name="Espacio Disponible m" numFmtId="3">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1358.6027499070979" maxValue="26779.264214046823"/>
-    </cacheField>
-    <cacheField name="Espacio Disponible ft" numFmtId="3">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="14624" maxValue="288252"/>
-    </cacheField>
-    <cacheField name="Tipo de Transacción" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Precio de Renta (USD/ft²/Mes)" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.55000000000000004"/>
-    </cacheField>
-    <cacheField name="Precio de Renta (USD/m²/Mes)" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="5.9202000000000004"/>
-    </cacheField>
-    <cacheField name="Disponible en" numFmtId="165">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2014-07-01T00:00:00" maxDate="2018-04-04T00:00:00"/>
-    </cacheField>
-    <cacheField name="Clase" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Estatus de Construcción" numFmtId="0">
-      <sharedItems count="2">
-        <s v="Entregado"/>
-        <s v="En Construcción"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Año de Construcción" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1994" maxValue="2018"/>
-    </cacheField>
-    <cacheField name="Historial del Espacio" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Comentarios" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="29">
-  <r>
-    <s v="Frisa - Bajamaq Insurgentes "/>
-    <s v="Insurgentes"/>
-    <s v="Central / El Lago (Tijuana)"/>
-    <x v="0"/>
-    <s v="Frisa"/>
-    <n v="38653.523999999998"/>
-    <n v="1945.9308807134896"/>
-    <n v="20946"/>
-    <s v="Renta"/>
-    <n v="0.37160906726124115"/>
-    <n v="3.9999999999999996"/>
-    <d v="2017-11-01T00:00:00"/>
-    <s v="C"/>
-    <x v="0"/>
-    <s v="N/D"/>
-    <s v="Previamente Ocupado"/>
-    <m/>
-  </r>
-  <r>
-    <s v="Iamsa - Shelter Spec"/>
-    <s v="Valle Bonito"/>
-    <s v="Florido/Blvd 2000 (Tijauna)"/>
-    <x v="1"/>
-    <s v="Iamsa Development Group"/>
-    <n v="87188.4"/>
-    <n v="1358.6027499070979"/>
-    <n v="14624"/>
-    <s v="Renta"/>
-    <n v="0.48959494611668525"/>
-    <n v="5.27"/>
-    <d v="2017-12-01T00:00:00"/>
-    <s v="A"/>
-    <x v="0"/>
-    <s v="N/D"/>
-    <s v="Previamente Ocupado"/>
-    <m/>
-  </r>
-  <r>
-    <s v="Thomas Alva Edison - Spec 1"/>
-    <s v="Thomas Alva Edison"/>
-    <s v="Florido/Blvd 2000 (Tijauna)"/>
-    <x v="2"/>
-    <s v="Thomas Alva Edison"/>
-    <n v="96876"/>
-    <n v="2787.0680044593091"/>
-    <n v="30000"/>
-    <s v="Renta"/>
-    <n v="0.44"/>
-    <n v="4.7361599999999999"/>
-    <d v="2018-04-01T00:00:00"/>
-    <s v="A"/>
-    <x v="0"/>
-    <s v="N/D"/>
-    <s v="Previamente Ocupado"/>
-    <s v="Desocupación "/>
-  </r>
-  <r>
-    <s v="Thomas Alva Edison - Spec 2"/>
-    <s v="Thomas Alva Edison"/>
-    <s v="Florido/Blvd 2000 (Tijauna)"/>
-    <x v="2"/>
-    <s v="Thomas Alva Edison"/>
-    <n v="269100"/>
-    <n v="6263.6566332218508"/>
-    <n v="67422"/>
-    <s v="Renta"/>
-    <n v="0.43942772203641767"/>
-    <n v="4.7299999999999995"/>
-    <d v="2017-11-01T00:00:00"/>
-    <s v="A"/>
-    <x v="0"/>
-    <s v="N/D"/>
-    <s v="Previamente Ocupado"/>
-    <m/>
-  </r>
-  <r>
-    <s v="Seshin  Facility"/>
-    <s v="Florido"/>
-    <s v="Florido/Blvd 2000 (Tijauna)"/>
-    <x v="3"/>
-    <s v="Particular"/>
-    <n v="92355.12"/>
-    <n v="8580"/>
-    <n v="92355.12"/>
-    <s v="Renta"/>
-    <n v="0"/>
-    <n v="0"/>
-    <d v="2014-07-01T00:00:00"/>
-    <s v="B"/>
-    <x v="0"/>
-    <n v="2001"/>
-    <s v="Previamente Ocupado"/>
-    <m/>
-  </r>
-  <r>
-    <s v="Finsa - Alamar II"/>
-    <s v="Finsa Alamar"/>
-    <s v="Otay (Tijuana)"/>
-    <x v="4"/>
-    <s v="Finsa"/>
-    <n v="211308.08399999997"/>
-    <n v="5989.0375325157938"/>
-    <n v="64466"/>
-    <s v="Renta"/>
-    <n v="0.4199182460052025"/>
-    <n v="4.5199999999999996"/>
-    <d v="2016-05-01T00:00:00"/>
-    <s v="A"/>
-    <x v="0"/>
-    <n v="2015"/>
-    <s v="Nuevo"/>
-    <m/>
-  </r>
-  <r>
-    <s v="Araico - Scripto Tocay "/>
-    <s v="Stand Alone ( El Rubi)"/>
-    <s v="La Mesa (Tijuana)"/>
-    <x v="3"/>
-    <s v="Particular"/>
-    <n v="230457.24"/>
-    <n v="21410"/>
-    <n v="230457.24"/>
-    <s v="Renta"/>
-    <n v="0"/>
-    <n v="0"/>
-    <d v="2015-10-01T00:00:00"/>
-    <s v="B"/>
-    <x v="0"/>
-    <s v="N/D"/>
-    <s v="Previamente Ocupado"/>
-    <m/>
-  </r>
-  <r>
-    <s v="Vesta Park I"/>
-    <s v="Florido"/>
-    <s v="Florido/Blvd 2000 (Tijauna)"/>
-    <x v="5"/>
-    <s v="Vesta"/>
-    <n v="150394.60799999998"/>
-    <n v="3815.0315867707172"/>
-    <n v="41065"/>
-    <s v="Renta"/>
-    <n v="0.41"/>
-    <n v="4.4132399999999992"/>
-    <d v="2018-02-01T00:00:00"/>
-    <s v="A"/>
-    <x v="0"/>
-    <s v="N/D"/>
-    <s v="Previamente Ocupado"/>
-    <m/>
-  </r>
-  <r>
-    <s v="Fimher - Nave 12"/>
-    <s v="El Girasol"/>
-    <s v="Central / El Lago (Tijuana)"/>
-    <x v="6"/>
-    <s v="Fimher"/>
-    <n v="227378.73599999998"/>
-    <n v="6108.9743589743593"/>
-    <n v="65757"/>
-    <s v="Renta"/>
-    <n v="0.39947974730583424"/>
-    <n v="4.3"/>
-    <d v="2017-07-01T00:00:00"/>
-    <s v="C"/>
-    <x v="0"/>
-    <s v="N/D"/>
-    <s v="Previamente Ocupado"/>
-    <m/>
-  </r>
-  <r>
-    <s v="Nai Listing  Roca Desarrollos - Iventario T01"/>
-    <s v="Ciudad Industrial"/>
-    <s v="Otay (Tijuana)"/>
-    <x v="7"/>
-    <s v="Roca Desarrollos"/>
-    <n v="175399.37999999998"/>
-    <n v="16294.999999999998"/>
-    <n v="175399.37999999998"/>
-    <s v="Renta"/>
-    <n v="0.38926049795615014"/>
-    <n v="4.1899999999999995"/>
-    <d v="2015-08-31T00:00:00"/>
-    <s v="A"/>
-    <x v="0"/>
-    <n v="2016"/>
-    <s v="Nuevo"/>
-    <m/>
-  </r>
-  <r>
-    <s v="Prologis - Pacifico 16 "/>
-    <s v="Pacifico"/>
-    <s v="Libramiento (Tijuana)"/>
-    <x v="8"/>
-    <s v="Prologis"/>
-    <n v="26727.011999999999"/>
-    <n v="2482.9988851727985"/>
-    <n v="26727"/>
-    <s v="Renta"/>
-    <n v="0.36975102192493497"/>
-    <n v="3.98"/>
-    <d v="2017-04-01T00:00:00"/>
-    <s v="B"/>
-    <x v="0"/>
-    <s v="N/D"/>
-    <s v="Previamente Ocupado"/>
-    <m/>
-  </r>
-  <r>
-    <s v="Vesta - G1 La Mesa"/>
-    <s v="Centro Industrial La Mesa"/>
-    <s v="La Mesa (Tijuana)"/>
-    <x v="5"/>
-    <s v="Vesta"/>
-    <n v="180178.59599999999"/>
-    <n v="5936.7335562987737"/>
-    <n v="63903"/>
-    <s v="Renta"/>
-    <n v="0.31586770717205498"/>
-    <n v="3.3999999999999995"/>
-    <d v="2016-10-01T00:00:00"/>
-    <s v="B"/>
-    <x v="0"/>
-    <s v="N/D"/>
-    <s v="Previamente Ocupado"/>
-    <m/>
-  </r>
-  <r>
-    <s v="Vesta - Morelos IV"/>
-    <s v="Parque Industrial Morelos"/>
-    <s v="Libramiento (Tijuana)"/>
-    <x v="5"/>
-    <s v="Atisa Industrial"/>
-    <n v="49342.175999999999"/>
-    <n v="4584"/>
-    <n v="49342.175999999999"/>
-    <s v="Renta"/>
-    <n v="0.42920847268673357"/>
-    <n v="4.62"/>
-    <d v="2017-01-03T00:00:00"/>
-    <s v="B"/>
-    <x v="0"/>
-    <s v="N/D"/>
-    <s v="Previamente Ocupado"/>
-    <m/>
-  </r>
-  <r>
-    <s v="Finsa - Otay II"/>
-    <s v="Finsa Alamar"/>
-    <s v="Otay (Tijuana)"/>
-    <x v="4"/>
-    <s v="Finsa"/>
-    <n v="227001.99599999998"/>
-    <n v="4836.0274990709777"/>
-    <n v="52055"/>
-    <s v="Renta"/>
-    <n v="0.48959494611668525"/>
-    <n v="5.27"/>
-    <d v="2016-07-01T00:00:00"/>
-    <s v="A"/>
-    <x v="0"/>
-    <n v="2007"/>
-    <s v="Previamente Ocupado"/>
-    <m/>
-  </r>
-  <r>
-    <s v="NAI - Falcon I "/>
-    <s v="La Encantada"/>
-    <s v="Florido/Blvd 2000 (Tijauna)"/>
-    <x v="9"/>
-    <s v="El Florido"/>
-    <n v="199974"/>
-    <n v="18578.037904124863"/>
-    <n v="199974"/>
-    <s v="Renta"/>
-    <n v="0.47937569676700109"/>
-    <n v="5.1599999999999993"/>
-    <d v="2017-05-01T00:00:00"/>
-    <s v="A"/>
-    <x v="1"/>
-    <n v="2017"/>
-    <s v="Nuevo"/>
-    <m/>
-  </r>
-  <r>
-    <s v="CBRE - Kyocera Building "/>
-    <s v="Internacional Tijuana"/>
-    <s v="Otay (Tijuana)"/>
-    <x v="3"/>
-    <s v="Particular"/>
-    <n v="214000"/>
-    <n v="9940.5425492382019"/>
-    <n v="107000"/>
-    <s v="Renta"/>
-    <n v="0"/>
-    <n v="0"/>
-    <d v="2017-08-01T00:00:00"/>
-    <s v="B"/>
-    <x v="0"/>
-    <s v="N/D"/>
-    <s v="Previamente Ocupado"/>
-    <m/>
-  </r>
-  <r>
-    <s v="Inmobiliaria Diroma - Edificio I "/>
-    <s v="Stand Alone (Florido/Blvd 2000)"/>
-    <s v="Florido/Blvd 2000 (Tijauna)"/>
-    <x v="10"/>
-    <s v="Inmobiliaria Diroma"/>
-    <n v="107640"/>
-    <n v="10000"/>
-    <n v="107640"/>
-    <s v="Renta"/>
-    <n v="0"/>
-    <n v="0"/>
-    <d v="2016-10-01T00:00:00"/>
-    <s v="A"/>
-    <x v="0"/>
-    <n v="2016"/>
-    <s v="Nuevo"/>
-    <m/>
-  </r>
-  <r>
-    <s v="Atisa - Diamante "/>
-    <s v="Pacifico"/>
-    <s v="Libramiento (Tijuana)"/>
-    <x v="11"/>
-    <s v="Atisa Industrial"/>
-    <n v="221952"/>
-    <n v="20619.843924191751"/>
-    <n v="221952"/>
-    <s v="Renta"/>
-    <n v="0.4199182460052025"/>
-    <n v="4.5199999999999996"/>
-    <d v="2017-11-01T00:00:00"/>
-    <s v="A"/>
-    <x v="1"/>
-    <n v="2017"/>
-    <s v="Nuevo"/>
-    <m/>
-  </r>
-  <r>
-    <s v="Iamsa - Aqua "/>
-    <s v="Vie Verte Tijuana "/>
-    <s v="Florido/Blvd 2000 (Tijauna)"/>
-    <x v="1"/>
-    <s v="Iamsa Development Group"/>
-    <n v="103334"/>
-    <n v="9599.9628390932739"/>
-    <n v="103334"/>
-    <s v="Renta"/>
-    <n v="0.45986622073578598"/>
-    <n v="4.95"/>
-    <d v="2017-11-01T00:00:00"/>
-    <s v="A"/>
-    <x v="1"/>
-    <n v="2017"/>
-    <s v="Nuevo"/>
-    <m/>
-  </r>
-  <r>
-    <s v="Maquila Properties - MCR Otay "/>
-    <s v="Ciudad Industrial"/>
-    <s v="Otay (Tijuana)"/>
-    <x v="3"/>
-    <s v="Particular"/>
-    <n v="23000"/>
-    <n v="2136.7521367521367"/>
-    <n v="23000"/>
-    <s v="Renta"/>
-    <n v="0.45"/>
-    <n v="4.8437999999999999"/>
-    <d v="2017-11-01T00:00:00"/>
-    <s v="B"/>
-    <x v="1"/>
-    <n v="2017"/>
-    <s v="Nuevo"/>
-    <m/>
-  </r>
-  <r>
-    <s v="Vesta - Lagoeste I "/>
-    <s v="Lagoeste "/>
-    <s v="Florido/Blvd 2000 (Tijauna)"/>
-    <x v="5"/>
-    <s v="Vesta"/>
-    <n v="264202"/>
-    <n v="24544.96469713861"/>
-    <n v="264202"/>
-    <s v="Renta"/>
-    <n v="0.47"/>
-    <n v="5.0590799999999998"/>
-    <d v="2018-02-01T00:00:00"/>
-    <s v="A"/>
-    <x v="1"/>
-    <n v="2018"/>
-    <s v="Nuevo"/>
-    <m/>
-  </r>
-  <r>
-    <s v="Vesta - Lagoeste II "/>
-    <s v="Lagoeste "/>
-    <s v="Florido/Blvd 2000 (Tijauna)"/>
-    <x v="5"/>
-    <s v="Vesta"/>
-    <n v="288252"/>
-    <n v="26779.264214046823"/>
-    <n v="288252"/>
-    <s v="Renta"/>
-    <n v="0.47"/>
-    <n v="5.0590799999999998"/>
-    <d v="2018-02-01T00:00:00"/>
-    <s v="A"/>
-    <x v="1"/>
-    <n v="2018"/>
-    <s v="Nuevo"/>
-    <m/>
-  </r>
-  <r>
-    <s v="Grupo Bustamante - Truper Building"/>
-    <s v="Florido"/>
-    <s v="Florido/Blvd 2000 (Tijauna)"/>
-    <x v="3"/>
-    <s v="Particular"/>
-    <n v="182988"/>
-    <n v="6500"/>
-    <n v="69966"/>
-    <s v="Renta"/>
-    <n v="0.55000000000000004"/>
-    <n v="5.9202000000000004"/>
-    <d v="2017-10-03T00:00:00"/>
-    <s v="A"/>
-    <x v="0"/>
-    <n v="2017"/>
-    <s v="Nuevo"/>
-    <s v="Espacio reportado disponible dentro de edificio propio"/>
-  </r>
-  <r>
-    <s v="NAI - Realito 1 "/>
-    <s v="Stand Alone (Florido/Blvd 2000)"/>
-    <s v="Florido/Blvd 2000 (Tijauna)"/>
-    <x v="3"/>
-    <s v="Particular"/>
-    <n v="159908"/>
-    <n v="3713.5823114083987"/>
-    <n v="39973"/>
-    <s v="Renta"/>
-    <n v="0.44"/>
-    <n v="4.7361599999999999"/>
-    <d v="2018-04-01T00:00:00"/>
-    <s v="C"/>
-    <x v="0"/>
-    <n v="2008"/>
-    <s v="Previamente Ocupado"/>
-    <s v="Desocupación, edificio previamente no contabilizado en Inventario total del mercado."/>
-  </r>
-  <r>
-    <s v="Maquila Properties - Snapple Bld "/>
-    <s v="Stand Alone "/>
-    <s v="Tecate"/>
-    <x v="3"/>
-    <s v="Particular"/>
-    <n v="170609"/>
-    <n v="15849.962839093274"/>
-    <n v="170609"/>
-    <s v="Renta"/>
-    <n v="0.34"/>
-    <n v="3.6597599999999999"/>
-    <d v="2018-04-01T00:00:00"/>
-    <s v="B"/>
-    <x v="0"/>
-    <n v="1994"/>
-    <s v="Previamente Ocupado"/>
-    <s v="Nuevo submercado de Tecate, edificio reportado como disponible "/>
-  </r>
-  <r>
-    <s v="Maquila Properties - MCR Gateway"/>
-    <s v="Stand Alone "/>
-    <s v="Tecate"/>
-    <x v="3"/>
-    <s v="Particular"/>
-    <n v="97480"/>
-    <n v="9056.1129691564474"/>
-    <n v="97480"/>
-    <s v="Renta"/>
-    <n v="0"/>
-    <n v="0"/>
-    <d v="2018-04-01T00:00:00"/>
-    <s v="B"/>
-    <x v="0"/>
-    <n v="2002"/>
-    <s v="Previamente Ocupado"/>
-    <s v="Nuevo submercado de Tecate, edificio reportado como disponible "/>
-  </r>
-  <r>
-    <s v="Iamsa - Shiraz "/>
-    <s v="El Bajio "/>
-    <s v="Tecate"/>
-    <x v="1"/>
-    <s v="Iamsa Development Group"/>
-    <n v="116000"/>
-    <n v="10776.662950575994"/>
-    <n v="116000"/>
-    <s v="Renta"/>
-    <n v="0.45"/>
-    <n v="4.8437999999999999"/>
-    <d v="2017-08-01T00:00:00"/>
-    <s v="A"/>
-    <x v="0"/>
-    <n v="2017"/>
-    <s v="Nuevo"/>
-    <s v="Nuevo submercado de Tecate, edificio reportado como disponible "/>
-  </r>
-  <r>
-    <s v="Iamsa - Zinfandel"/>
-    <s v="El Bajio "/>
-    <s v="Tecate"/>
-    <x v="1"/>
-    <s v="Iamsa Development Group"/>
-    <n v="109000"/>
-    <n v="4738.0156075808254"/>
-    <n v="51000"/>
-    <s v="Renta"/>
-    <n v="0.43"/>
-    <n v="4.62852"/>
-    <d v="2018-04-03T00:00:00"/>
-    <s v="A"/>
-    <x v="0"/>
-    <n v="2006"/>
-    <s v="Previamente Ocupado"/>
-    <s v="Nuevo submercado de Tecate, edificio reportado como disponible "/>
-  </r>
-  <r>
-    <s v="Iamsa - Nebbiolo "/>
-    <s v="El Bajio "/>
-    <s v="Tecate"/>
-    <x v="1"/>
-    <s v="Iamsa Development Group"/>
-    <n v="109000"/>
-    <n v="4738.0156075808254"/>
-    <n v="51000"/>
-    <s v="Renta"/>
-    <n v="0.43"/>
-    <n v="4.62852"/>
-    <d v="2018-04-03T00:00:00"/>
-    <s v="A"/>
-    <x v="0"/>
-    <n v="2016"/>
-    <s v="Previamente Ocupado"/>
-    <s v="Nuevo submercado de Tecate, edificio reportado como disponible "/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF5977D0-ECEF-421D-95EB-B1D1471A1476}" name="TablaDinámica7" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13" rowHeaderCaption="Desarrollador">
-  <location ref="A3:D16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="17">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="13">
-        <item x="11"/>
-        <item x="9"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="10"/>
-        <item h="1" x="3"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="3" showAll="0"/>
-    <pivotField numFmtId="3" showAll="0"/>
-    <pivotField dataField="1" numFmtId="3" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="12">
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="13"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Suma de Espacio Disponible ft" fld="7" baseField="0" baseItem="0" numFmtId="43"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="4">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="8" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TableGeneral1" displayName="TableGeneral1" ref="A3:J11" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Sub-mercado"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Edificios" dataDxfId="134"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ft²" dataDxfId="133"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Inventario Nuevo" dataDxfId="132"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Previamente Ocupado" dataDxfId="131"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Sub-arrendamiento" dataDxfId="130"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Total" dataDxfId="129"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="%" dataDxfId="128"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Bajo Construcción" dataDxfId="127"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Rentas de Salida (USD/ft²/Mes)" dataDxfId="126"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Edificios" dataDxfId="129"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ft²" dataDxfId="128"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Inventario Nuevo" dataDxfId="127"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Previamente Ocupado" dataDxfId="126"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Sub-arrendamiento" dataDxfId="125"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Total" dataDxfId="124"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="%" dataDxfId="123"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Bajo Construcción" dataDxfId="122"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Rentas de Salida (USD/ft²/Mes)" dataDxfId="121"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3243,12 +1187,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="TableAbsorption5" displayName="TableAbsorption5" ref="A50:G58" totalsRowShown="0">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Sub-mercado"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Reubicaciones Totales" dataDxfId="65"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Crecimiento por Reubicaciones" dataDxfId="64"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Expansiones" dataDxfId="63"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Operaciones Nuevas" dataDxfId="62"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="Absorción Bruta" dataDxfId="61"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="Absorción Neta" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Reubicaciones Totales" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Crecimiento por Reubicaciones" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Expansiones" dataDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Operaciones Nuevas" dataDxfId="57"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="Absorción Bruta" dataDxfId="56"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="Absorción Neta" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3258,12 +1202,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="TableQuarterAbsorption1" displayName="TableQuarterAbsorption1" ref="A2:G10" totalsRowShown="0">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Sub-mercado"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Reubicaciones Totales" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Crecimiento por Reubicaciones" dataDxfId="58"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="Expansiones" dataDxfId="57"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="Operaciones Nuevas" dataDxfId="56"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="Absorción Bruta" dataDxfId="55"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" name="Absorción Neta" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Reubicaciones Totales" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Crecimiento por Reubicaciones" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="Expansiones" dataDxfId="52"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="Operaciones Nuevas" dataDxfId="51"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="Absorción Bruta" dataDxfId="50"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" name="Absorción Neta" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3273,12 +1217,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="TableQuarterAbsorption2" displayName="TableQuarterAbsorption2" ref="A14:G22" totalsRowShown="0">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="Sub-mercado"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="Reubicaciones Totales" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="Crecimiento por Reubicaciones" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="Expansiones" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="Operaciones Nuevas" dataDxfId="50"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="Absorción Bruta" dataDxfId="49"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0B00-000007000000}" name="Absorción Neta" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="Reubicaciones Totales" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="Crecimiento por Reubicaciones" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="Expansiones" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="Operaciones Nuevas" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="Absorción Bruta" dataDxfId="44"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0B00-000007000000}" name="Absorción Neta" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3288,12 +1232,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="TableQuarterAbsorption3" displayName="TableQuarterAbsorption3" ref="A26:G34" totalsRowShown="0">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="Sub-mercado"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="Reubicaciones Totales" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="Crecimiento por Reubicaciones" dataDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="Expansiones" dataDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="Operaciones Nuevas" dataDxfId="44"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="Absorción Bruta" dataDxfId="43"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" name="Absorción Neta" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="Reubicaciones Totales" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="Crecimiento por Reubicaciones" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="Expansiones" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="Operaciones Nuevas" dataDxfId="39"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="Absorción Bruta" dataDxfId="38"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" name="Absorción Neta" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3303,12 +1247,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="TableQuarterAbsorption4" displayName="TableQuarterAbsorption4" ref="A38:G46" totalsRowShown="0">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="Sub-mercado"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="Reubicaciones Totales" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="Crecimiento por Reubicaciones" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" name="Expansiones" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0D00-000005000000}" name="Operaciones Nuevas" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0D00-000006000000}" name="Absorción Bruta" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0D00-000007000000}" name="Absorción Neta" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="Reubicaciones Totales" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="Crecimiento por Reubicaciones" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" name="Expansiones" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0D00-000005000000}" name="Operaciones Nuevas" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0D00-000006000000}" name="Absorción Bruta" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0D00-000007000000}" name="Absorción Neta" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3318,37 +1262,37 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="TableQuarterAbsorption5" displayName="TableQuarterAbsorption5" ref="A50:G58" totalsRowShown="0">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="Sub-mercado"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="Reubicaciones Totales" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="Crecimiento por Reubicaciones" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="Expansiones" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0E00-000005000000}" name="Operaciones Nuevas" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0E00-000006000000}" name="Absorción Bruta" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0E00-000007000000}" name="Absorción Neta" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="Reubicaciones Totales" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="Crecimiento por Reubicaciones" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="Expansiones" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0E00-000005000000}" name="Operaciones Nuevas" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0E00-000006000000}" name="Absorción Bruta" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0E00-000007000000}" name="Absorción Neta" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="TableAvailability" displayName="TableAvailability" ref="A1:Q30" totalsRowShown="0">
-  <autoFilter ref="A1:Q30" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="TableAvailability" displayName="TableAvailability" ref="A2:Q31" totalsRowShown="0">
+  <autoFilter ref="A2:Q31" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="Edificio"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="Parque Industrial"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="Sub-mercado"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" name="Propietario"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0F00-000005000000}" name="Desarrollador"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0F00-000006000000}" name="Área Neta Rentable" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0F00-000007000000}" name="Espacio Disponible m" dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0F00-000008000000}" name="Espacio Disponible ft" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0F00-000009000000}" name="Tipo de Transacción" dataDxfId="26"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0F00-00000A000000}" name="Precio de Renta (USD/ft²/Mes)" dataDxfId="25"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0F00-00000B000000}" name="Precio de Renta (USD/m²/Mes)" dataDxfId="24"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0F00-00000C000000}" name="Disponible en" dataDxfId="23"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0F00-00000D000000}" name="Clase" dataDxfId="22"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0F00-00000E000000}" name="Estatus de Construcción" dataDxfId="21"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0F00-00000F000000}" name="Año de Construcción" dataDxfId="20"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0F00-000010000000}" name="Historial del Espacio" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0F00-000006000000}" name="Área Neta Rentable" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0F00-000007000000}" name="Espacio Disponible m" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0F00-000008000000}" name="Espacio Disponible ft" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0F00-000009000000}" name="Tipo de Transacción" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0F00-00000A000000}" name="Precio de Renta (USD/ft²/Mes)" dataDxfId="20"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0F00-00000B000000}" name="Precio de Renta (USD/m²/Mes)" dataDxfId="19"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0F00-00000C000000}" name="Disponible en" dataDxfId="18"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0F00-00000D000000}" name="Clase" dataDxfId="17"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0F00-00000E000000}" name="Estatus de Construcción" dataDxfId="16"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0F00-00000F000000}" name="Año de Construcción" dataDxfId="15"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0F00-000010000000}" name="Historial del Espacio" dataDxfId="14"/>
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0F00-000011000000}" name="Comentarios"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3365,20 +1309,20 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-1000-000004000000}" name="Sub-mercado"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-1000-000005000000}" name="Propietario"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-1000-000006000000}" name="Inquilino"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1000-000007000000}" name="Área Neta Rentable (ft²)" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1000-000008000000}" name="Espacio Disponible (ft²)" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1000-000009000000}" name="Espacio Arrendado (m²)" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1000-00000A000000}" name="Espacio Arrendado (ft²)" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1000-00000B000000}" name="Precio de Renta (ft²/Mes)" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1000-00000C000000}" name="Tipo de Moneda (cierre)" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-1000-00000D000000}" name="Broker del Usuario" dataDxfId="12"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-1000-00000E000000}" name="Broker del Propietario" dataDxfId="11"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-1000-00000F000000}" name="Clase" dataDxfId="10"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-1000-000010000000}" name="Origen del Edificio" dataDxfId="9"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-1000-000011000000}" name="Naturaleza de la Operación" dataDxfId="8"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-1000-000012000000}" name="Año de Construcción" dataDxfId="7"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-1000-000013000000}" name="Giro" dataDxfId="6"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-1000-000014000000}" name="Actividad" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1000-000007000000}" name="Área Neta Rentable (ft²)" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1000-000008000000}" name="Espacio Disponible (ft²)" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1000-000009000000}" name="Espacio Arrendado (m²)" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1000-00000A000000}" name="Espacio Arrendado (ft²)" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1000-00000B000000}" name="Precio de Renta (ft²/Mes)" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1000-00000C000000}" name="Tipo de Moneda (cierre)" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-1000-00000D000000}" name="Broker del Usuario" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-1000-00000E000000}" name="Broker del Propietario" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-1000-00000F000000}" name="Clase" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-1000-000010000000}" name="Origen del Edificio" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-1000-000011000000}" name="Naturaleza de la Operación" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-1000-000012000000}" name="Año de Construcción" dataDxfId="2"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-1000-000013000000}" name="Giro" dataDxfId="1"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-1000-000014000000}" name="Actividad" dataDxfId="0"/>
     <tableColumn id="21" xr3:uid="{00000000-0010-0000-1000-000015000000}" name="Comentarios"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3389,15 +1333,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="TableGeneral2" displayName="TableGeneral2" ref="A16:J24" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Sub-mercado"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Edificios" dataDxfId="125"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ft²" dataDxfId="124"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Inventario Nuevo" dataDxfId="123"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Previamente Ocupado" dataDxfId="122"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Sub-arrendamiento" dataDxfId="121"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Total" dataDxfId="120"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="%" dataDxfId="119"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Bajo Construcción" dataDxfId="118"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Rentas de Salida (USD/ft²/Mes)" dataDxfId="117"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Edificios" dataDxfId="120"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ft²" dataDxfId="119"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Inventario Nuevo" dataDxfId="118"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Previamente Ocupado" dataDxfId="117"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Sub-arrendamiento" dataDxfId="116"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Total" dataDxfId="115"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="%" dataDxfId="114"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Bajo Construcción" dataDxfId="113"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Rentas de Salida (USD/ft²/Mes)" dataDxfId="112"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3407,15 +1351,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="TableGeneral3" displayName="TableGeneral3" ref="A29:J37" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Sub-mercado"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Edificios" dataDxfId="116"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="ft²" dataDxfId="115"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Inventario Nuevo" dataDxfId="114"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Previamente Ocupado" dataDxfId="113"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Sub-arrendamiento" dataDxfId="112"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Total" dataDxfId="111"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="%" dataDxfId="110"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Bajo Construcción" dataDxfId="109"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Rentas de Salida (USD/ft²/Mes)" dataDxfId="108"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Edificios" dataDxfId="111"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="ft²" dataDxfId="110"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Inventario Nuevo" dataDxfId="109"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Previamente Ocupado" dataDxfId="108"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Sub-arrendamiento" dataDxfId="107"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Total" dataDxfId="106"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="%" dataDxfId="105"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Bajo Construcción" dataDxfId="104"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Rentas de Salida (USD/ft²/Mes)" dataDxfId="103"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3425,15 +1369,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="TableGeneral4" displayName="TableGeneral4" ref="A42:J50" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Sub-mercado"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Edificios" dataDxfId="107"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ft²" dataDxfId="106"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Inventario Nuevo" dataDxfId="105"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Previamente Ocupado" dataDxfId="104"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Sub-arrendamiento" dataDxfId="103"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Total" dataDxfId="102"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="%" dataDxfId="101"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Bajo Construcción" dataDxfId="100"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Rentas de Salida (USD/ft²/Mes)" dataDxfId="99"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Edificios" dataDxfId="102"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ft²" dataDxfId="101"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Inventario Nuevo" dataDxfId="100"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Previamente Ocupado" dataDxfId="99"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Sub-arrendamiento" dataDxfId="98"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Total" dataDxfId="97"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="%" dataDxfId="96"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Bajo Construcción" dataDxfId="95"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Rentas de Salida (USD/ft²/Mes)" dataDxfId="94"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3443,15 +1387,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="TableGeneral5" displayName="TableGeneral5" ref="A55:J63" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Sub-mercado"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Edificios" dataDxfId="98"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ft²" dataDxfId="97"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Inventario Nuevo" dataDxfId="96"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Previamente Ocupado" dataDxfId="95"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Sub-arrendamiento" dataDxfId="94"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Total" dataDxfId="93"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="%" dataDxfId="92"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Bajo Construcción" dataDxfId="91"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="Rentas de Salida (USD/ft²/Mes)" dataDxfId="90"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Edificios" dataDxfId="93"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ft²" dataDxfId="92"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Inventario Nuevo" dataDxfId="91"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Previamente Ocupado" dataDxfId="90"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Sub-arrendamiento" dataDxfId="89"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Total" dataDxfId="88"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="%" dataDxfId="87"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Bajo Construcción" dataDxfId="86"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="Rentas de Salida (USD/ft²/Mes)" dataDxfId="85"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3461,12 +1405,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="TableAbsorption1" displayName="TableAbsorption1" ref="A2:G10" totalsRowShown="0">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Sub-mercado"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Reubicaciones Totales" dataDxfId="89"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Crecimiento por Reubicaciones" dataDxfId="88"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Expansiones" dataDxfId="87"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Operaciones Nuevas" dataDxfId="86"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Absorción Bruta" dataDxfId="85"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Absorción Neta" dataDxfId="84"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Reubicaciones Totales" dataDxfId="84"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Crecimiento por Reubicaciones" dataDxfId="83"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Expansiones" dataDxfId="82"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Operaciones Nuevas" dataDxfId="81"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Absorción Bruta" dataDxfId="80"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Absorción Neta" dataDxfId="79"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3476,12 +1420,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="TableAbsorption2" displayName="TableAbsorption2" ref="A14:G22" totalsRowShown="0">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Sub-mercado"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Reubicaciones Totales" dataDxfId="83"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Crecimiento por Reubicaciones" dataDxfId="82"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Expansiones" dataDxfId="81"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Operaciones Nuevas" dataDxfId="80"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Absorción Bruta" dataDxfId="79"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="Absorción Neta" dataDxfId="78"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Reubicaciones Totales" dataDxfId="78"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Crecimiento por Reubicaciones" dataDxfId="77"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Expansiones" dataDxfId="76"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Operaciones Nuevas" dataDxfId="75"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Absorción Bruta" dataDxfId="74"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="Absorción Neta" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3491,12 +1435,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="TableAbsorption3" displayName="TableAbsorption3" ref="A26:G34" totalsRowShown="0">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Sub-mercado"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Reubicaciones Totales" dataDxfId="77"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Crecimiento por Reubicaciones" dataDxfId="76"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Expansiones" dataDxfId="75"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Operaciones Nuevas" dataDxfId="74"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Absorción Bruta" dataDxfId="73"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="Absorción Neta" dataDxfId="72"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Reubicaciones Totales" dataDxfId="72"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Crecimiento por Reubicaciones" dataDxfId="71"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Expansiones" dataDxfId="70"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Operaciones Nuevas" dataDxfId="69"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Absorción Bruta" dataDxfId="68"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="Absorción Neta" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3506,12 +1450,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="TableAbsorption4" displayName="TableAbsorption4" ref="A38:G46" totalsRowShown="0">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Sub-mercado"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Reubicaciones Totales" dataDxfId="71"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Crecimiento por Reubicaciones" dataDxfId="70"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Expansiones" dataDxfId="69"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Operaciones Nuevas" dataDxfId="68"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="Absorción Bruta" dataDxfId="67"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="Absorción Neta" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Reubicaciones Totales" dataDxfId="66"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Crecimiento por Reubicaciones" dataDxfId="65"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Expansiones" dataDxfId="64"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Operaciones Nuevas" dataDxfId="63"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="Absorción Bruta" dataDxfId="62"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="Absorción Neta" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3807,40 +1751,40 @@
   <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="4" width="20.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" style="5" customWidth="1"/>
-    <col min="6" max="9" width="20.7109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="4" width="20.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" style="5" customWidth="1"/>
+    <col min="6" max="9" width="20.6640625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="30.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3872,7 +1816,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -3904,7 +1848,7 @@
         <v>0.39274665543803217</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -3936,7 +1880,7 @@
         <v>0.47007797020942371</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -3968,7 +1912,7 @@
         <v>0.31586770717205498</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -4000,7 +1944,7 @@
         <v>0.41695731749053444</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -4032,7 +1976,7 @@
         <v>0.41655724080821777</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -4064,7 +2008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -4096,7 +2040,7 @@
         <v>0.39645777632530382</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -4128,7 +2072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -4169,28 +2113,28 @@
         <v>0.40144411124059448</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21" t="s">
+      <c r="C15" s="15"/>
+      <c r="D15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -4222,7 +2166,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -4254,7 +2198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -4286,7 +2230,7 @@
         <v>0.47119241518516269</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -4318,7 +2262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -4350,7 +2294,7 @@
         <v>0.4199182460052025</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -4382,7 +2326,7 @@
         <v>0.41392233240815673</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -4414,7 +2358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -4446,7 +2390,7 @@
         <v>0.44064220183486241</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -4478,7 +2422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>9</v>
       </c>
@@ -4519,28 +2463,28 @@
         <v>0.43641879885834606</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21" t="s">
+      <c r="C28" s="15"/>
+      <c r="D28" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -4572,7 +2516,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -4604,7 +2548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -4636,7 +2580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -4668,7 +2612,7 @@
         <v>0.31586770717205498</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -4700,7 +2644,7 @@
         <v>0.40831802309765702</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -4732,7 +2676,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -4764,7 +2708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -4796,7 +2740,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -4828,7 +2772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>9</v>
       </c>
@@ -4869,28 +2813,28 @@
         <v>0.37854643256742804</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21" t="s">
+      <c r="C41" s="15"/>
+      <c r="D41" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -4922,7 +2866,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -4954,7 +2898,7 @@
         <v>0.39274665543803217</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -4986,7 +2930,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -5018,7 +2962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -5050,7 +2994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -5082,7 +3026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>18</v>
       </c>
@@ -5114,7 +3058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -5146,7 +3090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -5178,7 +3122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>9</v>
       </c>
@@ -5219,28 +3163,28 @@
         <v>0.41637332771901608</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="21" t="s">
+      <c r="B54" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21" t="s">
+      <c r="C54" s="15"/>
+      <c r="D54" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -5272,7 +3216,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -5304,7 +3248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -5336,7 +3280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>15</v>
       </c>
@@ -5368,7 +3312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>16</v>
       </c>
@@ -5400,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>17</v>
       </c>
@@ -5432,7 +3376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>18</v>
       </c>
@@ -5464,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>19</v>
       </c>
@@ -5496,7 +3440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>20</v>
       </c>
@@ -5528,7 +3472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>9</v>
       </c>
@@ -5571,6 +3515,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="I15:J15"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="D54:H54"/>
     <mergeCell ref="I54:J54"/>
@@ -5580,12 +3530,6 @@
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:H41"/>
     <mergeCell ref="I41:J41"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="I15:J15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="5">
@@ -5603,23 +3547,23 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="5" customWidth="1"/>
-    <col min="4" max="7" width="20.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" style="5" customWidth="1"/>
+    <col min="4" max="7" width="20.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5642,7 +3586,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -5665,7 +3609,7 @@
         <v>147746</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -5688,7 +3632,7 @@
         <v>329858</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -5711,7 +3655,7 @@
         <v>53293</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -5734,7 +3678,7 @@
         <v>110234</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -5757,7 +3701,7 @@
         <v>527250</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -5780,7 +3724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -5803,7 +3747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -5826,7 +3770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -5855,12 +3799,12 @@
         <v>1168381</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -5883,7 +3827,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -5906,7 +3850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -5929,7 +3873,7 @@
         <v>329858</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -5952,7 +3896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -5975,7 +3919,7 @@
         <v>61000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -5998,7 +3942,7 @@
         <v>135000</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -6021,7 +3965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -6044,7 +3988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -6067,7 +4011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>9</v>
       </c>
@@ -6096,12 +4040,12 @@
         <v>525858</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -6124,7 +4068,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -6147,7 +4091,7 @@
         <v>147746</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -6170,7 +4114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -6193,7 +4137,7 @@
         <v>53293</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -6216,7 +4160,7 @@
         <v>49234</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -6239,7 +4183,7 @@
         <v>330841</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -6262,7 +4206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -6285,7 +4229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -6308,7 +4252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>9</v>
       </c>
@@ -6337,12 +4281,12 @@
         <v>581114</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -6365,7 +4309,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -6388,7 +4332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -6411,7 +4355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -6434,7 +4378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>16</v>
       </c>
@@ -6457,7 +4401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -6480,7 +4424,7 @@
         <v>61409</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>18</v>
       </c>
@@ -6503,7 +4447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>19</v>
       </c>
@@ -6526,7 +4470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>20</v>
       </c>
@@ -6549,7 +4493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>9</v>
       </c>
@@ -6578,12 +4522,12 @@
         <v>61409</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>3</v>
       </c>
@@ -6606,7 +4550,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -6629,7 +4573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -6652,7 +4596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>15</v>
       </c>
@@ -6675,7 +4619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>16</v>
       </c>
@@ -6698,7 +4642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -6721,7 +4665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -6744,7 +4688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -6767,7 +4711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>20</v>
       </c>
@@ -6790,7 +4734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>9</v>
       </c>
@@ -6839,20 +4783,20 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="5" customWidth="1"/>
-    <col min="4" max="7" width="20.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" style="5" customWidth="1"/>
+    <col min="4" max="7" width="20.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -6875,7 +4819,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -6898,7 +4842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -6921,7 +4865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -6944,7 +4888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -6967,7 +4911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -6990,7 +4934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -7013,7 +4957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -7036,7 +4980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -7059,7 +5003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -7088,12 +5032,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -7116,7 +5060,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -7139,7 +5083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -7162,7 +5106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -7185,7 +5129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -7208,7 +5152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -7231,7 +5175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -7254,7 +5198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -7277,7 +5221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -7300,7 +5244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>9</v>
       </c>
@@ -7329,12 +5273,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -7357,7 +5301,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -7380,7 +5324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -7403,7 +5347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -7426,7 +5370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -7449,7 +5393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -7472,7 +5416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -7495,7 +5439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -7518,7 +5462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -7541,7 +5485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>9</v>
       </c>
@@ -7570,12 +5514,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -7598,7 +5542,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -7621,7 +5565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -7644,7 +5588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -7667,7 +5611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>16</v>
       </c>
@@ -7690,7 +5634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -7713,7 +5657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>18</v>
       </c>
@@ -7736,7 +5680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>19</v>
       </c>
@@ -7759,7 +5703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>20</v>
       </c>
@@ -7782,7 +5726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>9</v>
       </c>
@@ -7811,12 +5755,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>3</v>
       </c>
@@ -7839,7 +5783,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -7862,7 +5806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -7885,7 +5829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>15</v>
       </c>
@@ -7908,7 +5852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>16</v>
       </c>
@@ -7931,7 +5875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -7954,7 +5898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -7977,7 +5921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -8000,7 +5944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>20</v>
       </c>
@@ -8023,7 +5967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>9</v>
       </c>
@@ -8065,1355 +6009,1117 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5607C500-3575-41F0-BD07-8225D04DDDF1}">
-  <dimension ref="A3:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="30.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" style="5" customWidth="1"/>
+    <col min="7" max="8" width="30.6640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" style="5" customWidth="1"/>
+    <col min="10" max="11" width="30.6640625" style="5" customWidth="1"/>
+    <col min="12" max="14" width="20.6640625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="25.6640625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="29.83203125" style="5" customWidth="1"/>
+    <col min="17" max="17" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>34</v>
       </c>
-      <c r="B4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="6">
+        <v>38653.523999999998</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1945.9308807134896</v>
+      </c>
+      <c r="H3" s="6">
+        <v>20946</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0.37160906726124115</v>
+      </c>
+      <c r="K3" s="8">
+        <v>3.9999999999999996</v>
+      </c>
+      <c r="L3" s="12">
+        <v>43040</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="24">
-        <v>552454</v>
-      </c>
-      <c r="C5" s="24">
-        <v>154310.17600000001</v>
-      </c>
-      <c r="D5" s="24">
-        <v>706764.17599999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="24">
-        <v>103334</v>
-      </c>
-      <c r="C6" s="24">
-        <v>232624</v>
-      </c>
-      <c r="D6" s="24">
-        <v>335958</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="24">
-        <v>221952</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24">
-        <v>221952</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="24">
-        <v>199974</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24">
-        <v>199974</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24">
-        <v>175399.37999999998</v>
-      </c>
-      <c r="D9" s="24">
-        <v>175399.37999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24">
-        <v>116521</v>
-      </c>
-      <c r="D10" s="24">
-        <v>116521</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24">
-        <v>107640</v>
-      </c>
-      <c r="D11" s="24">
-        <v>107640</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24">
-        <v>97422</v>
-      </c>
-      <c r="D12" s="24">
-        <v>97422</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24">
-        <v>65757</v>
-      </c>
-      <c r="D13" s="24">
-        <v>65757</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24">
-        <v>26727</v>
-      </c>
-      <c r="D14" s="24">
-        <v>26727</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24">
-        <v>20946</v>
-      </c>
-      <c r="D15" s="24">
-        <v>20946</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="B16" s="24">
-        <v>1077714</v>
-      </c>
-      <c r="C16" s="24">
-        <v>997346.55599999998</v>
-      </c>
-      <c r="D16" s="24">
-        <v>2075060.5559999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Q31"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="5" customWidth="1"/>
-    <col min="7" max="8" width="30.7109375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" style="5" customWidth="1"/>
-    <col min="10" max="11" width="30.7109375" style="5" customWidth="1"/>
-    <col min="12" max="14" width="20.7109375" style="5" customWidth="1"/>
-    <col min="15" max="15" width="25.7109375" style="5" customWidth="1"/>
-    <col min="16" max="16" width="29.85546875" style="5" customWidth="1"/>
-    <col min="17" max="17" width="30.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="6">
-        <v>38653.523999999998</v>
-      </c>
-      <c r="G2" s="6">
-        <v>1945.9308807134896</v>
-      </c>
-      <c r="H2" s="6">
-        <v>20946</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="8">
-        <v>0.37160906726124115</v>
-      </c>
-      <c r="K2" s="8">
-        <v>3.9999999999999996</v>
-      </c>
-      <c r="L2" s="12">
-        <v>43040</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O2" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="O3" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="6">
-        <v>87188.4</v>
-      </c>
-      <c r="G3" s="6">
-        <v>1358.6027499070979</v>
-      </c>
-      <c r="H3" s="6">
-        <v>14624</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="8">
-        <v>0.48959494611668525</v>
-      </c>
-      <c r="K3" s="8">
-        <v>5.27</v>
-      </c>
-      <c r="L3" s="12">
-        <v>43070</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F4" s="6">
-        <v>96876</v>
+        <v>87188.4</v>
       </c>
       <c r="G4" s="6">
-        <v>2787.0680044593091</v>
+        <v>1358.6027499070979</v>
       </c>
       <c r="H4" s="6">
-        <v>30000</v>
+        <v>14624</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J4" s="8">
-        <v>0.44</v>
+        <v>0.48959494611668525</v>
       </c>
       <c r="K4" s="8">
-        <v>4.7361599999999999</v>
+        <v>5.27</v>
       </c>
       <c r="L4" s="12">
-        <v>43191</v>
+        <v>43070</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
         <v>60</v>
-      </c>
-      <c r="B5" t="s">
-        <v>59</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F5" s="6">
-        <v>269100</v>
+        <v>96876</v>
       </c>
       <c r="G5" s="6">
-        <v>6263.6566332218508</v>
+        <v>2787.0680044593091</v>
       </c>
       <c r="H5" s="6">
-        <v>67422</v>
+        <v>30000</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J5" s="8">
-        <v>0.43942772203641767</v>
+        <v>0.44</v>
       </c>
       <c r="K5" s="8">
-        <v>4.7299999999999995</v>
+        <v>4.7361599999999999</v>
       </c>
       <c r="L5" s="12">
-        <v>43040</v>
+        <v>43191</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F6" s="6">
-        <v>92355.12</v>
+        <v>269100</v>
       </c>
       <c r="G6" s="6">
-        <v>8580</v>
+        <v>6263.6566332218508</v>
       </c>
       <c r="H6" s="6">
-        <v>92355.12</v>
+        <v>67422</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J6" s="8">
-        <v>0</v>
+        <v>0.43942772203641767</v>
       </c>
       <c r="K6" s="8">
-        <v>0</v>
+        <v>4.7299999999999995</v>
       </c>
       <c r="L6" s="12">
-        <v>41821</v>
+        <v>43040</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O6" s="5">
-        <v>2001</v>
+        <v>53</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="P6" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="6">
+        <v>92355.12</v>
+      </c>
+      <c r="G7" s="6">
+        <v>8580</v>
+      </c>
+      <c r="H7" s="6">
+        <v>92355.12</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0</v>
+      </c>
+      <c r="L7" s="12">
+        <v>41821</v>
+      </c>
+      <c r="M7" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B7" t="s">
+      <c r="N7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" s="5">
+        <v>2001</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>66</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="6">
         <v>211308.08399999997</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G8" s="6">
         <v>5989.0375325157938</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H8" s="6">
         <v>64466</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" s="8">
+      <c r="I8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="8">
         <v>0.4199182460052025</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K8" s="8">
         <v>4.5199999999999996</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L8" s="12">
         <v>42491</v>
       </c>
-      <c r="M7" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O7" s="5">
+      <c r="M8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O8" s="5">
         <v>2015</v>
       </c>
-      <c r="P7" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="P8" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>70</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="6">
         <v>230457.24</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G9" s="6">
         <v>21410</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H9" s="6">
         <v>230457.24</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" s="8">
-        <v>0</v>
-      </c>
-      <c r="K8" s="8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="12">
+      <c r="I9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0</v>
+      </c>
+      <c r="L9" s="12">
         <v>42278</v>
       </c>
-      <c r="M8" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O8" s="5" t="s">
+      <c r="M9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="N9" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="P8" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="6">
-        <v>150394.60799999998</v>
-      </c>
-      <c r="G9" s="6">
-        <v>3815.0315867707172</v>
-      </c>
-      <c r="H9" s="6">
-        <v>41065</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="8">
-        <v>0.41</v>
-      </c>
-      <c r="K9" s="8">
-        <v>4.4132399999999992</v>
-      </c>
-      <c r="L9" s="12">
-        <v>43132</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="O9" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
         <v>73</v>
       </c>
-      <c r="B10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>75</v>
-      </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F10" s="6">
-        <v>227378.73599999998</v>
+        <v>150394.60799999998</v>
       </c>
       <c r="G10" s="6">
-        <v>6108.9743589743593</v>
+        <v>3815.0315867707172</v>
       </c>
       <c r="H10" s="6">
-        <v>65757</v>
+        <v>41065</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J10" s="8">
-        <v>0.39947974730583424</v>
+        <v>0.41</v>
       </c>
       <c r="K10" s="8">
-        <v>4.3</v>
+        <v>4.4132399999999992</v>
       </c>
       <c r="L10" s="12">
-        <v>42917</v>
+        <v>43132</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
         <v>76</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="6">
+        <v>227378.73599999998</v>
+      </c>
+      <c r="G11" s="6">
+        <v>6108.9743589743593</v>
+      </c>
+      <c r="H11" s="6">
+        <v>65757</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0.39947974730583424</v>
+      </c>
+      <c r="K11" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="L11" s="12">
+        <v>42917</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>77</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" t="s">
         <v>17</v>
       </c>
-      <c r="D11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="6">
+      <c r="D12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="6">
         <v>175399.37999999998</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G12" s="6">
         <v>16294.999999999998</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H12" s="6">
         <v>175399.37999999998</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" s="8">
+      <c r="I12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="8">
         <v>0.38926049795615014</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K12" s="8">
         <v>4.1899999999999995</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L12" s="12">
         <v>42247</v>
       </c>
-      <c r="M11" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O11" s="5">
+      <c r="M12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O12" s="5">
         <v>2016</v>
       </c>
-      <c r="P11" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="P12" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>80</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" t="s">
         <v>16</v>
       </c>
-      <c r="D12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="6">
+      <c r="D13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="6">
         <v>26727.011999999999</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G13" s="6">
         <v>2482.9988851727985</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H13" s="6">
         <v>26727</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J12" s="8">
+      <c r="I13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="8">
         <v>0.36975102192493497</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K13" s="8">
         <v>3.98</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L13" s="12">
         <v>42826</v>
       </c>
-      <c r="M12" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O12" s="5" t="s">
+      <c r="M13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="N13" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="P12" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="6">
-        <v>180178.59599999999</v>
-      </c>
-      <c r="G13" s="6">
-        <v>5936.7335562987737</v>
-      </c>
-      <c r="H13" s="6">
-        <v>63903</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J13" s="8">
-        <v>0.31586770717205498</v>
-      </c>
-      <c r="K13" s="8">
-        <v>3.3999999999999995</v>
-      </c>
-      <c r="L13" s="12">
-        <v>42644</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="O13" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" t="s">
         <v>84</v>
       </c>
-      <c r="B14" t="s">
-        <v>85</v>
-      </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="F14" s="6">
-        <v>49342.175999999999</v>
+        <v>180178.59599999999</v>
       </c>
       <c r="G14" s="6">
-        <v>4584</v>
+        <v>5936.7335562987737</v>
       </c>
       <c r="H14" s="6">
-        <v>49342.175999999999</v>
+        <v>63903</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J14" s="8">
-        <v>0.42920847268673357</v>
+        <v>0.31586770717205498</v>
       </c>
       <c r="K14" s="8">
-        <v>4.62</v>
+        <v>3.3999999999999995</v>
       </c>
       <c r="L14" s="12">
-        <v>42738</v>
+        <v>42644</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" t="s">
         <v>87</v>
       </c>
-      <c r="B15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" t="s">
-        <v>67</v>
-      </c>
       <c r="F15" s="6">
-        <v>227001.99599999998</v>
+        <v>49342.175999999999</v>
       </c>
       <c r="G15" s="6">
-        <v>4836.0274990709777</v>
+        <v>4584</v>
       </c>
       <c r="H15" s="6">
-        <v>52055</v>
+        <v>49342.175999999999</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J15" s="8">
-        <v>0.48959494611668525</v>
+        <v>0.42920847268673357</v>
       </c>
       <c r="K15" s="8">
-        <v>5.27</v>
+        <v>4.62</v>
       </c>
       <c r="L15" s="12">
-        <v>42552</v>
+        <v>42738</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O15" s="5">
-        <v>2007</v>
+        <v>53</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="P15" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>88</v>
       </c>
       <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="6">
+        <v>227001.99599999998</v>
+      </c>
+      <c r="G16" s="6">
+        <v>4836.0274990709777</v>
+      </c>
+      <c r="H16" s="6">
+        <v>52055</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0.48959494611668525</v>
+      </c>
+      <c r="K16" s="8">
+        <v>5.27</v>
+      </c>
+      <c r="L16" s="12">
+        <v>42552</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O16" s="5">
+        <v>2007</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>89</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" t="s">
         <v>14</v>
       </c>
-      <c r="D16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" s="6">
+      <c r="D17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="6">
         <v>199974</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G17" s="6">
         <v>18578.037904124863</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H17" s="6">
         <v>199974</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J16" s="8">
+      <c r="I17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17" s="8">
         <v>0.47937569676700109</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K17" s="8">
         <v>5.1599999999999993</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L17" s="12">
         <v>42856</v>
       </c>
-      <c r="M16" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="O16" s="5">
+      <c r="M17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O17" s="5">
         <v>2017</v>
       </c>
-      <c r="P16" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="P17" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>93</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" t="s">
         <v>17</v>
       </c>
-      <c r="D17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="6">
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="6">
         <v>214000</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G18" s="6">
         <v>9940.5425492382019</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H18" s="6">
         <v>107000</v>
       </c>
-      <c r="I17" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J17" s="8">
-        <v>0</v>
-      </c>
-      <c r="K17" s="8">
-        <v>0</v>
-      </c>
-      <c r="L17" s="12">
+      <c r="I18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" s="8">
+        <v>0</v>
+      </c>
+      <c r="K18" s="8">
+        <v>0</v>
+      </c>
+      <c r="L18" s="12">
         <v>42948</v>
       </c>
-      <c r="M17" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O17" s="5" t="s">
+      <c r="M18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="N18" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="P17" s="5" t="s">
+      <c r="O18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P18" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>94</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>95</v>
       </c>
-      <c r="C18" t="s">
+      <c r="B19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" t="s">
         <v>14</v>
       </c>
-      <c r="D18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="6">
+      <c r="D19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="6">
         <v>107640</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G19" s="6">
         <v>10000</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H19" s="6">
         <v>107640</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J18" s="8">
-        <v>0</v>
-      </c>
-      <c r="K18" s="8">
-        <v>0</v>
-      </c>
-      <c r="L18" s="12">
+      <c r="I19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0</v>
+      </c>
+      <c r="K19" s="8">
+        <v>0</v>
+      </c>
+      <c r="L19" s="12">
         <v>42644</v>
       </c>
-      <c r="M18" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O18" s="5">
+      <c r="M19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O19" s="5">
         <v>2016</v>
       </c>
-      <c r="P18" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E19" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" s="6">
-        <v>221952</v>
-      </c>
-      <c r="G19" s="6">
-        <v>20619.843924191751</v>
-      </c>
-      <c r="H19" s="6">
-        <v>221952</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J19" s="8">
-        <v>0.4199182460052025</v>
-      </c>
-      <c r="K19" s="8">
-        <v>4.5199999999999996</v>
-      </c>
-      <c r="L19" s="12">
-        <v>43040</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="O19" s="5">
-        <v>2017</v>
-      </c>
       <c r="P19" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>98</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="F20" s="6">
-        <v>103334</v>
+        <v>221952</v>
       </c>
       <c r="G20" s="6">
-        <v>9599.9628390932739</v>
+        <v>20619.843924191751</v>
       </c>
       <c r="H20" s="6">
-        <v>103334</v>
+        <v>221952</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J20" s="8">
-        <v>0.45986622073578598</v>
+        <v>0.4199182460052025</v>
       </c>
       <c r="K20" s="8">
-        <v>4.95</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="L20" s="12">
         <v>43040</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O20" s="5">
         <v>2017</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" t="s">
         <v>100</v>
       </c>
-      <c r="B21" t="s">
-        <v>77</v>
-      </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F21" s="6">
-        <v>23000</v>
+        <v>103334</v>
       </c>
       <c r="G21" s="6">
-        <v>2136.7521367521367</v>
+        <v>9599.9628390932739</v>
       </c>
       <c r="H21" s="6">
-        <v>23000</v>
+        <v>103334</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J21" s="8">
-        <v>0.45</v>
+        <v>0.45986622073578598</v>
       </c>
       <c r="K21" s="8">
-        <v>4.8437999999999999</v>
+        <v>4.95</v>
       </c>
       <c r="L21" s="12">
         <v>43040</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O21" s="5">
         <v>2017</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>101</v>
       </c>
       <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="6">
+        <v>23000</v>
+      </c>
+      <c r="G22" s="6">
+        <v>2136.7521367521367</v>
+      </c>
+      <c r="H22" s="6">
+        <v>23000</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J22" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="K22" s="8">
+        <v>4.8437999999999999</v>
+      </c>
+      <c r="L22" s="12">
+        <v>43040</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O22" s="5">
+        <v>2017</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>102</v>
       </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="6">
-        <v>264202</v>
-      </c>
-      <c r="G22" s="6">
-        <v>24544.96469713861</v>
-      </c>
-      <c r="H22" s="6">
-        <v>264202</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J22" s="8">
-        <v>0.47</v>
-      </c>
-      <c r="K22" s="8">
-        <v>5.0590799999999998</v>
-      </c>
-      <c r="L22" s="12">
-        <v>43132</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="O22" s="5">
-        <v>2018</v>
-      </c>
-      <c r="P22" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
         <v>103</v>
-      </c>
-      <c r="B23" t="s">
-        <v>102</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F23" s="6">
-        <v>288252</v>
+        <v>264202</v>
       </c>
       <c r="G23" s="6">
-        <v>26779.264214046823</v>
+        <v>24544.96469713861</v>
       </c>
       <c r="H23" s="6">
-        <v>288252</v>
+        <v>264202</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J23" s="8">
         <v>0.47</v>
@@ -9425,422 +7131,472 @@
         <v>43132</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O23" s="5">
         <v>2018</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>104</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F24" s="6">
-        <v>182988</v>
+        <v>288252</v>
       </c>
       <c r="G24" s="6">
-        <v>6500</v>
+        <v>26779.264214046823</v>
       </c>
       <c r="H24" s="6">
-        <v>69966</v>
+        <v>288252</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J24" s="8">
-        <v>0.55000000000000004</v>
+        <v>0.47</v>
       </c>
       <c r="K24" s="8">
-        <v>5.9202000000000004</v>
+        <v>5.0590799999999998</v>
       </c>
       <c r="L24" s="12">
-        <v>43011</v>
+        <v>43132</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="O24" s="5">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q24" s="14" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>105</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F25" s="6">
-        <v>159908</v>
+        <v>182988</v>
       </c>
       <c r="G25" s="6">
-        <v>3713.5823114083987</v>
+        <v>6500</v>
       </c>
       <c r="H25" s="6">
-        <v>39973</v>
+        <v>69966</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J25" s="8">
-        <v>0.44</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K25" s="8">
-        <v>4.7361599999999999</v>
+        <v>5.9202000000000004</v>
       </c>
       <c r="L25" s="12">
-        <v>43191</v>
+        <v>43011</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O25" s="5">
-        <v>2008</v>
+        <v>2017</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="Q25" s="14" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+    <row r="26" spans="1:17" ht="45" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="6">
+        <v>159908</v>
+      </c>
+      <c r="G26" s="6">
+        <v>3713.5823114083987</v>
+      </c>
+      <c r="H26" s="6">
+        <v>39973</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J26" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="K26" s="8">
+        <v>4.7361599999999999</v>
+      </c>
+      <c r="L26" s="12">
+        <v>43191</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O26" s="5">
+        <v>2008</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q26" s="14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="B27" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" s="16">
+      <c r="D27" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="17">
         <v>170609</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G27" s="17">
         <v>15849.962839093274</v>
       </c>
-      <c r="H26" s="16">
+      <c r="H27" s="17">
         <v>170609</v>
       </c>
-      <c r="I26" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="J26" s="18">
+      <c r="I27" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="J27" s="19">
         <v>0.34</v>
       </c>
-      <c r="K26" s="18">
+      <c r="K27" s="19">
         <v>3.6597599999999999</v>
       </c>
-      <c r="L26" s="19">
+      <c r="L27" s="20">
         <v>43191</v>
       </c>
-      <c r="M26" s="17" t="s">
+      <c r="M27" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="N27" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="O27" s="18">
+        <v>1994</v>
+      </c>
+      <c r="P27" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q27" s="21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="N26" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="O26" s="17">
-        <v>1994</v>
-      </c>
-      <c r="P26" s="17" t="s">
+      <c r="E28" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="17">
+        <v>97480</v>
+      </c>
+      <c r="G28" s="17">
+        <v>9056.1129691564474</v>
+      </c>
+      <c r="H28" s="17">
+        <v>97480</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="J28" s="19">
+        <v>0</v>
+      </c>
+      <c r="K28" s="19">
+        <v>0</v>
+      </c>
+      <c r="L28" s="20">
+        <v>43191</v>
+      </c>
+      <c r="M28" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="N28" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="O28" s="18">
+        <v>2002</v>
+      </c>
+      <c r="P28" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="Q26" s="20" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27" s="15" t="s">
+      <c r="Q28" s="21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="16">
-        <v>97480</v>
-      </c>
-      <c r="G27" s="16">
-        <v>9056.1129691564474</v>
-      </c>
-      <c r="H27" s="16">
-        <v>97480</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="J27" s="18">
-        <v>0</v>
-      </c>
-      <c r="K27" s="18">
-        <v>0</v>
-      </c>
-      <c r="L27" s="19">
-        <v>43191</v>
-      </c>
-      <c r="M27" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="N27" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="O27" s="17">
-        <v>2002</v>
-      </c>
-      <c r="P27" s="17" t="s">
+      <c r="D29" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="17">
+        <v>116000</v>
+      </c>
+      <c r="G29" s="17">
+        <v>10776.662950575994</v>
+      </c>
+      <c r="H29" s="17">
+        <v>116000</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="J29" s="19">
+        <v>0.45</v>
+      </c>
+      <c r="K29" s="19">
+        <v>4.8437999999999999</v>
+      </c>
+      <c r="L29" s="20">
+        <v>42948</v>
+      </c>
+      <c r="M29" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="N29" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="O29" s="18">
+        <v>2017</v>
+      </c>
+      <c r="P29" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q29" s="21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A30" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="17">
+        <v>109000</v>
+      </c>
+      <c r="G30" s="17">
+        <v>4738.0156075808254</v>
+      </c>
+      <c r="H30" s="17">
+        <v>51000</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="J30" s="19">
+        <v>0.43</v>
+      </c>
+      <c r="K30" s="19">
+        <v>4.62852</v>
+      </c>
+      <c r="L30" s="20">
+        <v>43193</v>
+      </c>
+      <c r="M30" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="N30" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="O30" s="18">
+        <v>2006</v>
+      </c>
+      <c r="P30" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="Q27" s="20" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" s="15" t="s">
+      <c r="Q30" s="21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A31" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="16">
-        <v>116000</v>
-      </c>
-      <c r="G28" s="16">
-        <v>10776.662950575994</v>
-      </c>
-      <c r="H28" s="16">
-        <v>116000</v>
-      </c>
-      <c r="I28" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="J28" s="18">
-        <v>0.45</v>
-      </c>
-      <c r="K28" s="18">
-        <v>4.8437999999999999</v>
-      </c>
-      <c r="L28" s="19">
-        <v>42948</v>
-      </c>
-      <c r="M28" s="17" t="s">
+      <c r="D31" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="N28" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="O28" s="17">
-        <v>2017</v>
-      </c>
-      <c r="P28" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q28" s="20" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" s="16">
+      <c r="E31" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" s="17">
         <v>109000</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G31" s="17">
         <v>4738.0156075808254</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H31" s="17">
         <v>51000</v>
       </c>
-      <c r="I29" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="J29" s="18">
+      <c r="I31" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="J31" s="19">
         <v>0.43</v>
       </c>
-      <c r="K29" s="18">
+      <c r="K31" s="19">
         <v>4.62852</v>
       </c>
-      <c r="L29" s="19">
+      <c r="L31" s="20">
         <v>43193</v>
       </c>
-      <c r="M29" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="N29" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="O29" s="17">
-        <v>2006</v>
-      </c>
-      <c r="P29" s="17" t="s">
+      <c r="M31" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="N31" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="O31" s="18">
+        <v>2016</v>
+      </c>
+      <c r="P31" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="Q29" s="20" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="16">
-        <v>109000</v>
-      </c>
-      <c r="G30" s="16">
-        <v>4738.0156075808254</v>
-      </c>
-      <c r="H30" s="16">
-        <v>51000</v>
-      </c>
-      <c r="I30" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="J30" s="18">
-        <v>0.43</v>
-      </c>
-      <c r="K30" s="18">
-        <v>4.62852</v>
-      </c>
-      <c r="L30" s="19">
-        <v>43193</v>
-      </c>
-      <c r="M30" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="N30" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="O30" s="17">
-        <v>2016</v>
-      </c>
-      <c r="P30" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q30" s="20" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="9">
-        <f t="array" ref="F31">SUBTOTAL(109, TableAvailability[Área Neta Rentable])</f>
+      <c r="Q31" s="21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="9">
+        <f t="array" ref="F32">SUBTOTAL(109, TableAvailability[Área Neta Rentable])</f>
         <v>4429699.8719999995</v>
       </c>
-      <c r="G31" s="9">
-        <f t="array" ref="G31">SUBTOTAL(109, TableAvailability[Espacio Disponible m])</f>
+      <c r="G32" s="9">
+        <f t="array" ref="G32">SUBTOTAL(109, TableAvailability[Espacio Disponible m])</f>
         <v>269964.78223708656</v>
       </c>
-      <c r="H31" s="9">
-        <f t="array" ref="H31">SUBTOTAL(109, TableAvailability[Espacio Disponible ft])</f>
+      <c r="H32" s="9">
+        <f t="array" ref="H32">SUBTOTAL(109, TableAvailability[Espacio Disponible ft])</f>
         <v>2905900.9160000002</v>
       </c>
-      <c r="I31" s="13"/>
-      <c r="J31" s="11">
-        <f t="array" ref="J31">SUMPRODUCT((TableAvailability[Precio de Renta (USD/ft²/Mes)]),--(TableAvailability[Precio de Renta (USD/ft²/Mes)]&lt;&gt;""),(TableAvailability[Espacio Disponible ft]),--(TableAvailability[Espacio Disponible ft]&lt;&gt;""))/(SUMIF(TableAvailability[Precio de Renta (USD/ft²/Mes)],"&gt;0",TableAvailability[Espacio Disponible ft]))</f>
+      <c r="I32" s="13"/>
+      <c r="J32" s="11">
+        <f t="array" ref="J32">SUMPRODUCT((TableAvailability[Precio de Renta (USD/ft²/Mes)]),--(TableAvailability[Precio de Renta (USD/ft²/Mes)]&lt;&gt;""),(TableAvailability[Espacio Disponible ft]),--(TableAvailability[Espacio Disponible ft]&lt;&gt;""))/(SUMIF(TableAvailability[Precio de Renta (USD/ft²/Mes)],"&gt;0",TableAvailability[Espacio Disponible ft]))</f>
         <v>0.43579538493232012</v>
       </c>
-      <c r="K31" s="11">
-        <f t="array" ref="K31">SUMPRODUCT((TableAvailability[Precio de Renta (USD/m²/Mes)]),--(TableAvailability[Precio de Renta (USD/m²/Mes)]&lt;&gt;""),(TableAvailability[Espacio Disponible m]),--(TableAvailability[Espacio Disponible m]&lt;&gt;""))/(SUMIF(TableAvailability[Precio de Renta (USD/m²/Mes)],"&gt;0",TableAvailability[Espacio Disponible m]))</f>
+      <c r="K32" s="11">
+        <f t="array" ref="K32">SUMPRODUCT((TableAvailability[Precio de Renta (USD/m²/Mes)]),--(TableAvailability[Precio de Renta (USD/m²/Mes)]&lt;&gt;""),(TableAvailability[Espacio Disponible m]),--(TableAvailability[Espacio Disponible m]&lt;&gt;""))/(SUMIF(TableAvailability[Precio de Renta (USD/m²/Mes)],"&gt;0",TableAvailability[Espacio Disponible m]))</f>
         <v>4.690901523411493</v>
       </c>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="3"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9851,7 +7607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:U18"/>
   <sheetViews>
@@ -9862,101 +7618,101 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="30.7109375" customWidth="1"/>
-    <col min="7" max="20" width="30.7109375" style="5" customWidth="1"/>
-    <col min="21" max="21" width="30.7109375" customWidth="1"/>
+    <col min="1" max="6" width="30.6640625" customWidth="1"/>
+    <col min="7" max="20" width="30.6640625" style="5" customWidth="1"/>
+    <col min="21" max="21" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>43101</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G3" s="6">
         <v>131406.91199999998</v>
@@ -9974,51 +7730,51 @@
         <v>0.49</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>43101</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G4" s="6">
         <v>61409</v>
@@ -10036,51 +7792,51 @@
         <v>0.41</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="R4" s="5">
         <v>2007</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>43102</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G5" s="6">
         <v>183063</v>
@@ -10098,51 +7854,51 @@
         <v>0.43</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="R5" s="5">
         <v>2017</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>43132</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G6" s="6">
         <v>89997.803999999989</v>
@@ -10160,51 +7916,51 @@
         <v>0.46</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="R6" s="5">
         <v>2016</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>43132</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G7" s="6">
         <v>135000</v>
@@ -10222,51 +7978,51 @@
         <v>0.45</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="R7" s="5">
         <v>2018</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>43132</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G8" s="6">
         <v>299992.68</v>
@@ -10284,51 +8040,51 @@
         <v>0.41</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="R8" s="5">
         <v>2015</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>43132</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G9" s="6">
         <v>35392</v>
@@ -10346,51 +8102,51 @@
         <v>0.4</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="R9" s="5">
         <v>2017</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>43160</v>
       </c>
       <c r="B10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G10" s="6">
         <v>49234</v>
@@ -10408,51 +8164,51 @@
         <v>0.44</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="R10" s="5">
         <v>2000</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>43132</v>
       </c>
       <c r="B11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G11" s="6">
         <v>37878.515999999996</v>
@@ -10470,51 +8226,51 @@
         <v>0.42</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>43160</v>
       </c>
       <c r="B12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G12" s="6">
         <v>53293</v>
@@ -10532,51 +8288,51 @@
         <v>0.38</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>43160</v>
       </c>
       <c r="B13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G13" s="6">
         <v>54993</v>
@@ -10594,51 +8350,51 @@
         <v>0.38</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>43160</v>
       </c>
       <c r="B14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G14" s="6">
         <v>61000</v>
@@ -10656,51 +8412,51 @@
         <v>0.45</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="R14" s="5">
         <v>2017</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>43160</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G15" s="6">
         <v>87188.4</v>
@@ -10718,51 +8474,51 @@
         <v>0.45</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>43160</v>
       </c>
       <c r="B16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F16" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G16" s="6">
         <v>130050.64799999999</v>
@@ -10780,51 +8536,51 @@
         <v>0.4</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>43160</v>
       </c>
       <c r="B17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G17" s="6">
         <v>250187.65199999997</v>
@@ -10842,34 +8598,34 @@
         <v>0.42</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
